--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E0A75955-C220-4EBE-B29D-C0157DB62E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{76B6617B-F13F-438F-BC31-1840F9E09575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="7515" windowWidth="6405" windowHeight="5040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2160" windowWidth="6435" windowHeight="8505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="makemytrip12" sheetId="4" r:id="rId2"/>
+    <sheet name="makemytrip15" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:P17"/>
@@ -18,6 +20,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="1">
+  <si>
+    <t>IndiGo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -335,10 +345,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47AF57B-D254-4D84-BF26-D4E70E2FBF8E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>